--- a/MentorsCommon/Infs/Dictionary.xlsx
+++ b/MentorsCommon/Infs/Dictionary.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15180" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14820" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>role_description</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
   </si>
 </sst>
 </file>
@@ -492,402 +504,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>42</v>
       </c>
     </row>
